--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,255 +46,240 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
-    <t>less</t>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>two</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>made</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -304,63 +289,60 @@
     <t>enjoyable</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>expansion</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>enjoys</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>learn</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -370,43 +352,40 @@
     <t>birthday</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>easy</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>playing</t>
   </si>
   <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>play</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>kids</t>
+    <t>son</t>
   </si>
   <si>
     <t>good</t>
@@ -770,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -860,16 +839,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -881,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -910,16 +889,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K4">
-        <v>0.8928571428571429</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -931,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -939,13 +918,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7586206896551724</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -957,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -981,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -989,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1007,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K6">
-        <v>0.8769230769230769</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1031,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1039,13 +1018,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.703125</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1057,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K7">
-        <v>0.8172043010752689</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1081,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1089,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7043010752688172</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1107,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1131,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1139,13 +1118,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.703125</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1157,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K9">
-        <v>0.6792452830188679</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1181,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1189,13 +1168,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6756756756756757</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1207,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1231,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1239,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6363636363636364</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1257,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K11">
-        <v>0.5797101449275363</v>
+        <v>0.5810616929698709</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1281,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1310,16 +1289,16 @@
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K12">
-        <v>0.5566714490674318</v>
+        <v>0.524896265560166</v>
       </c>
       <c r="L12">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="M12">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1331,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>309</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1339,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6262135922330098</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C13">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1357,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K13">
-        <v>0.533195020746888</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L13">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1381,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>225</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1389,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5630252100840336</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1407,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K14">
-        <v>0.4680327868852459</v>
+        <v>0.4950819672131148</v>
       </c>
       <c r="L14">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="M14">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1431,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>649</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1439,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5555555555555556</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1457,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K15">
-        <v>0.4042553191489361</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1481,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1489,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5428571428571428</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1507,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K16">
-        <v>0.3962264150943396</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1531,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1539,49 +1518,49 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5238095238095238</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17">
+        <v>0.3773584905660378</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>33</v>
-      </c>
-      <c r="D17">
-        <v>33</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="L17">
-        <v>72</v>
-      </c>
-      <c r="M17">
-        <v>72</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1589,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5208333333333334</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1607,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K18">
-        <v>0.3795180722891566</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L18">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1631,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1639,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5142857142857142</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1657,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K19">
-        <v>0.3792048929663608</v>
+        <v>0.3516819571865443</v>
       </c>
       <c r="L19">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M19">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1681,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1689,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5014492753623189</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1707,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K20">
-        <v>0.3416666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1731,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1739,13 +1718,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4578313253012048</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1757,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K21">
-        <v>0.3090909090909091</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1781,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1789,13 +1768,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4251968503937008</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1807,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K22">
-        <v>0.2622950819672131</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1831,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1839,13 +1818,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4105263157894737</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1857,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K23">
-        <v>0.2542372881355932</v>
+        <v>0.2421875</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1881,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1889,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3947368421052632</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1907,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K24">
-        <v>0.2447552447552448</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1931,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1939,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3828125</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1957,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K25">
-        <v>0.2265625</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1981,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1989,13 +1968,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3809523809523809</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2007,31 +1986,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K26">
-        <v>0.2162162162162162</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>145</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2039,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3809523809523809</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2057,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K27">
-        <v>0.2088353413654618</v>
+        <v>0.2</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2081,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>197</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2089,13 +2068,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3720930232558139</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2107,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K28">
-        <v>0.2063492063492063</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2131,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2139,13 +2118,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3696682464454976</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C29">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2157,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K29">
-        <v>0.2</v>
+        <v>0.1850877192982456</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2178,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>929</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2189,13 +2168,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3518518518518519</v>
+        <v>0.3984375</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2207,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K30">
-        <v>0.1885964912280702</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="L30">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2228,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>925</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2239,13 +2218,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3483146067415731</v>
+        <v>0.3933649289099526</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2257,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K31">
-        <v>0.1724137931034483</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2281,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2289,37 +2268,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3333333333333333</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C32">
         <v>16</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K32">
-        <v>0.1282051282051282</v>
+        <v>0.1187540558079169</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2331,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>102</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2339,13 +2318,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3148148148148148</v>
+        <v>0.359375</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2357,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K33">
-        <v>0.1168831168831169</v>
+        <v>0.09749303621169916</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2381,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>136</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2389,13 +2368,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3134328358208955</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2407,31 +2386,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K34">
-        <v>0.1065627030539311</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="L34">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="N34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1375</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2439,13 +2418,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.301980198019802</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C35">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D35">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2457,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K35">
-        <v>0.1059602649006623</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2481,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>135</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2489,7 +2468,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2962962962962963</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C36">
         <v>16</v>
@@ -2507,31 +2486,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K36">
-        <v>0.09749303621169916</v>
+        <v>0.08203125</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>324</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2539,13 +2518,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2678571428571428</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2557,31 +2536,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K37">
-        <v>0.09727626459143969</v>
+        <v>0.0804953560371517</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>232</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2589,13 +2568,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.265625</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2610,28 +2589,28 @@
         <v>47</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K38">
-        <v>0.08579088471849866</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>341</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2639,7 +2618,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2622950819672131</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C39">
         <v>16</v>
@@ -2657,31 +2636,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K39">
-        <v>0.0804953560371517</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>297</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2689,13 +2668,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2525773195876289</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C40">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2707,25 +2686,25 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K40">
-        <v>0.05459387483355526</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M40">
         <v>42</v>
       </c>
       <c r="N40">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O40">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -2739,13 +2718,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.25</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2757,31 +2736,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K41">
-        <v>0.05190311418685121</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>274</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2789,13 +2768,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2355072463768116</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C42">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2807,31 +2786,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K42">
-        <v>0.04777070063694268</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>299</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2839,13 +2818,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2222222222222222</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2857,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K43">
-        <v>0.04325699745547074</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N43">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="O43">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2889,13 +2868,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2088607594936709</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C44">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2907,31 +2886,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K44">
-        <v>0.04251012145748988</v>
+        <v>0.03</v>
       </c>
       <c r="L44">
         <v>21</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N44">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O44">
-        <v>0.22</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>473</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2939,49 +2918,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2065727699530517</v>
+        <v>0.215</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E45">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>169</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K45">
-        <v>0.02659574468085106</v>
-      </c>
-      <c r="L45">
-        <v>15</v>
-      </c>
-      <c r="M45">
-        <v>16</v>
-      </c>
-      <c r="N45">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O45">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>549</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2989,13 +2944,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.195</v>
+        <v>0.2120253164556962</v>
       </c>
       <c r="C46">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D46">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3007,31 +2962,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>161</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K46">
-        <v>0.02279202279202279</v>
-      </c>
-      <c r="L46">
-        <v>16</v>
-      </c>
-      <c r="M46">
-        <v>19</v>
-      </c>
-      <c r="N46">
-        <v>0.84</v>
-      </c>
-      <c r="O46">
-        <v>0.16</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>686</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3039,7 +2970,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1938775510204082</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="C47">
         <v>19</v>
@@ -3057,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3065,13 +2996,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1910828025477707</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3083,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>127</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3091,13 +3022,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1884272997032641</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C49">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3109,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>547</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3117,25 +3048,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1815561959654179</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C50">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>284</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3143,25 +3074,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1752577319587629</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="C51">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>80</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3169,13 +3100,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1740506329113924</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C52">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3187,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>261</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3195,13 +3126,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1574074074074074</v>
+        <v>0.1780415430267062</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3213,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>91</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3221,13 +3152,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1484375</v>
+        <v>0.1695402298850575</v>
       </c>
       <c r="C54">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3239,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>109</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3247,25 +3178,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1479028697571744</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="C55">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>386</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3273,25 +3204,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1428571428571428</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C56">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>228</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3299,25 +3230,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1371428571428571</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3325,13 +3256,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1357142857142857</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3343,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>121</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3351,13 +3282,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1355932203389831</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3369,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3377,13 +3308,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1230769230769231</v>
+        <v>0.140625</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3395,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>114</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3403,25 +3334,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1176470588235294</v>
+        <v>0.1365638766519824</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E61">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>165</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3429,13 +3360,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1129032258064516</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="C62">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3447,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3455,25 +3386,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1122448979591837</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="C63">
         <v>22</v>
       </c>
       <c r="D63">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3481,25 +3412,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1099476439790576</v>
+        <v>0.1169811320754717</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>170</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3507,13 +3438,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1038251366120219</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3525,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>164</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3533,13 +3464,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.09577464788732394</v>
+        <v>0.09295774647887324</v>
       </c>
       <c r="C66">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3551,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3559,25 +3490,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.09554140127388536</v>
+        <v>0.09213483146067415</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E67">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F67">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>142</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3585,25 +3516,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09467455621301775</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E68">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3611,13 +3542,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08900523560209424</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>0.06</v>
@@ -3629,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3637,25 +3568,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.08767123287671233</v>
+        <v>0.07278481012658228</v>
       </c>
       <c r="C70">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>333</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3663,25 +3594,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08705357142857142</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C71">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F71">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>409</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3689,25 +3620,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07885304659498207</v>
+        <v>0.06919275123558484</v>
       </c>
       <c r="C72">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D72">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E72">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F72">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>257</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3715,25 +3646,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.07781456953642384</v>
+        <v>0.05386416861826698</v>
       </c>
       <c r="C73">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E73">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="F73">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>557</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3741,25 +3672,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.06257982120051085</v>
+        <v>0.05236270753512133</v>
       </c>
       <c r="C74">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D74">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E74">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="F74">
-        <v>0.8200000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3767,25 +3698,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.06031746031746032</v>
+        <v>0.0460122699386503</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D75">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E75">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F75">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>296</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3793,155 +3724,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.05411764705882353</v>
+        <v>0.03777335984095427</v>
       </c>
       <c r="C76">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D76">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="F76">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77">
-        <v>0.05348837209302326</v>
-      </c>
-      <c r="C77">
-        <v>23</v>
-      </c>
-      <c r="D77">
-        <v>27</v>
-      </c>
-      <c r="E77">
-        <v>0.15</v>
-      </c>
-      <c r="F77">
-        <v>0.85</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>0.049079754601227</v>
-      </c>
-      <c r="C78">
-        <v>32</v>
-      </c>
-      <c r="D78">
-        <v>35</v>
-      </c>
-      <c r="E78">
-        <v>0.09</v>
-      </c>
-      <c r="F78">
-        <v>0.91</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>0.0389908256880734</v>
-      </c>
-      <c r="C79">
-        <v>17</v>
-      </c>
-      <c r="D79">
-        <v>28</v>
-      </c>
-      <c r="E79">
-        <v>0.39</v>
-      </c>
-      <c r="F79">
-        <v>0.61</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>0.03433476394849785</v>
-      </c>
-      <c r="C80">
-        <v>16</v>
-      </c>
-      <c r="D80">
-        <v>19</v>
-      </c>
-      <c r="E80">
-        <v>0.16</v>
-      </c>
-      <c r="F80">
-        <v>0.84</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81">
-        <v>0.03193612774451098</v>
-      </c>
-      <c r="C81">
-        <v>16</v>
-      </c>
-      <c r="D81">
-        <v>19</v>
-      </c>
-      <c r="E81">
-        <v>0.16</v>
-      </c>
-      <c r="F81">
-        <v>0.84</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
